--- a/Results/Final Results/Samples/600Scen/Results_Sample600_03.xlsx
+++ b/Results/Final Results/Samples/600Scen/Results_Sample600_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\600Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{446B3DC7-3043-4C49-90E7-958C5FCBFDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897CA19F-74EF-4F7F-B7D8-3A5632B15BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Omega</t>
   </si>
@@ -155,13 +155,7 @@
     <t>Steprule</t>
   </si>
   <si>
-    <t>Nullhypothesis: (MeanGap)_LR &lt;= (MeanGap)_Naive</t>
-  </si>
-  <si>
     <t>unable to reject</t>
-  </si>
-  <si>
-    <t>NOCH NICHT GEMACHT</t>
   </si>
   <si>
     <t>Steprules (x,y)</t>
@@ -258,6 +252,12 @@
   </si>
   <si>
     <t>6,5</t>
+  </si>
+  <si>
+    <t>Nullhypothesis: (MeanGap)_LR &gt; (MeanGap)_Naive</t>
+  </si>
+  <si>
+    <t>reject</t>
   </si>
 </sst>
 </file>
@@ -668,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T121"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:T42"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,7 +694,7 @@
     <col min="19" max="19" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -747,10 +747,10 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
         <v>251.92719</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>600</v>
       </c>
@@ -847,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>600</v>
       </c>
@@ -897,10 +897,10 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>600</v>
       </c>
@@ -947,13 +947,10 @@
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>600</v>
       </c>
@@ -1000,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>600</v>
       </c>
@@ -1050,10 +1047,10 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1103,10 +1100,10 @@
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>600</v>
       </c>
@@ -1150,7 +1147,7 @@
         <v>249.91245000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>600</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>249.91245000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>600</v>
       </c>
@@ -1241,13 +1238,13 @@
         <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>600</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>249.91245000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>600</v>
       </c>
@@ -1338,13 +1335,13 @@
         <v>0.05</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1391,13 +1388,13 @@
         <v>239.57094000000001</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>600</v>
       </c>
@@ -1441,13 +1438,13 @@
         <v>239.57094000000001</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>600</v>
       </c>
@@ -1491,10 +1488,10 @@
         <v>239.57094000000001</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1541,10 +1538,10 @@
         <v>239.57094000000001</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1591,10 +1588,10 @@
         <v>239.57094000000001</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -1641,10 +1638,10 @@
         <v>239.57094000000001</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1694,10 +1691,10 @@
         <v>248.02085</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1744,10 +1741,10 @@
         <v>248.02085</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1794,10 +1791,10 @@
         <v>248.02085</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1844,10 +1841,10 @@
         <v>248.02085</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -1894,10 +1891,10 @@
         <v>248.02085</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1944,10 +1941,10 @@
         <v>248.02085</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -1997,10 +1994,10 @@
         <v>247.75701000000001</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -2047,10 +2044,10 @@
         <v>247.75701000000001</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -2097,10 +2094,10 @@
         <v>247.75701000000001</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -2147,10 +2144,10 @@
         <v>247.75701000000001</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -2197,10 +2194,10 @@
         <v>247.75701000000001</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -2247,10 +2244,10 @@
         <v>247.75701000000001</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -2300,10 +2297,10 @@
         <v>249.38500999999999</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
@@ -2350,10 +2347,10 @@
         <v>249.38500999999999</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
@@ -2400,10 +2397,10 @@
         <v>249.38500999999999</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
@@ -2450,10 +2447,10 @@
         <v>249.38500999999999</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
@@ -2500,10 +2497,10 @@
         <v>249.38500999999999</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
@@ -2550,10 +2547,10 @@
         <v>249.38500999999999</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -2603,10 +2600,10 @@
         <v>246.15871000000001</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
@@ -2653,10 +2650,10 @@
         <v>246.15871000000001</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -2703,10 +2700,10 @@
         <v>246.15871000000001</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -2753,10 +2750,10 @@
         <v>246.15871000000001</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
@@ -2803,10 +2800,10 @@
         <v>246.15871000000001</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">

--- a/Results/Final Results/Samples/600Scen/Results_Sample600_03.xlsx
+++ b/Results/Final Results/Samples/600Scen/Results_Sample600_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\600Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897CA19F-74EF-4F7F-B7D8-3A5632B15BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6321173A-A033-41EF-B792-1A1360A8C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,7 +671,7 @@
   <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,7 +770,8 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.4039999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.4035840633227376E-2</v>
       </c>
       <c r="H2">
         <v>7.1389999999999995E-2</v>
@@ -814,7 +815,8 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.8119999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.8119835514979843E-2</v>
       </c>
       <c r="H3">
         <v>7.1389999999999995E-2</v>
@@ -867,7 +869,8 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.605E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.6050322673478919E-2</v>
       </c>
       <c r="H4">
         <v>7.1389999999999995E-2</v>
@@ -917,7 +920,8 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.2790000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.278753923652832E-2</v>
       </c>
       <c r="H5">
         <v>7.1389999999999995E-2</v>
@@ -967,7 +971,8 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.8119999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.8119835514979843E-2</v>
       </c>
       <c r="H6">
         <v>7.1389999999999995E-2</v>
@@ -1017,7 +1022,8 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.8119999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.8119835514979843E-2</v>
       </c>
       <c r="H7">
         <v>7.1389999999999995E-2</v>
@@ -1070,7 +1076,8 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4.4540000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.4538425132915824E-2</v>
       </c>
       <c r="H8">
         <v>6.9400000000000003E-2</v>
@@ -1120,7 +1127,8 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.44E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.4403430722361114E-2</v>
       </c>
       <c r="H9">
         <v>6.9400000000000003E-2</v>
@@ -1164,7 +1172,8 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.7900000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.7903297274918958E-2</v>
       </c>
       <c r="H10">
         <v>6.9400000000000003E-2</v>
@@ -1208,7 +1217,8 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.9649999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.9647405607403534E-2</v>
       </c>
       <c r="H11">
         <v>6.9400000000000003E-2</v>
@@ -1261,7 +1271,8 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.4540000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.4538425132915824E-2</v>
       </c>
       <c r="H12">
         <v>6.9400000000000003E-2</v>
@@ -1305,7 +1316,8 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.4540000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.4538425132915824E-2</v>
       </c>
       <c r="H13">
         <v>6.9400000000000003E-2</v>
@@ -1361,7 +1373,8 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6.4600000000000005E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.4600270556975051E-2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1411,7 +1424,8 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>6.6970000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.6973963897093161E-2</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1461,7 +1475,8 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.2689999999999996E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.2694230398377057E-2</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1511,7 +1526,8 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>6.6960000000000006E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.6955794862563603E-2</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1561,7 +1577,8 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>6.6970000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.6973963897093161E-2</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1611,7 +1628,8 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>7.0400000000000004E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.0400555406035847E-2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1664,7 +1682,8 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.4209999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.4207293170196169E-2</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1714,7 +1733,8 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.4209999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.4207293170196169E-2</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1764,7 +1784,8 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.4209999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.4207293170196169E-2</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1814,7 +1835,8 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.3279999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.3280647659989365E-2</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1864,7 +1886,8 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.6450000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.6454018420129554E-2</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1914,7 +1937,8 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.6450000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.6454018420129554E-2</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1967,7 +1991,8 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>4.1230000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.1225480011248851E-2</v>
       </c>
       <c r="H26">
         <v>7.5829999999999995E-2</v>
@@ -2017,7 +2042,8 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>3.5040000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.5043426880386169E-2</v>
       </c>
       <c r="H27">
         <v>7.5829999999999995E-2</v>
@@ -2067,7 +2093,8 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>3.5589999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.5588445870716787E-2</v>
       </c>
       <c r="H28">
         <v>7.5829999999999995E-2</v>
@@ -2117,7 +2144,8 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>3.8080000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.8080005329914818E-2</v>
       </c>
       <c r="H29">
         <v>7.5829999999999995E-2</v>
@@ -2167,7 +2195,8 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>4.1230000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.1225480011248851E-2</v>
       </c>
       <c r="H30">
         <v>7.5829999999999995E-2</v>
@@ -2217,7 +2246,8 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>4.1230000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.1225480011248851E-2</v>
       </c>
       <c r="H31">
         <v>7.5829999999999995E-2</v>
@@ -2270,7 +2300,8 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3.7510000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.7506838492700811E-2</v>
       </c>
       <c r="H32">
         <v>7.009E-2</v>
@@ -2320,7 +2351,8 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>4.1880000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.1883723718748857E-2</v>
       </c>
       <c r="H33">
         <v>7.009E-2</v>
@@ -2370,7 +2402,8 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>4.1880000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.1883723718748857E-2</v>
       </c>
       <c r="H34">
         <v>7.009E-2</v>
@@ -2420,7 +2453,8 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>4.1880000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.1883723718748857E-2</v>
       </c>
       <c r="H35">
         <v>7.009E-2</v>
@@ -2470,7 +2504,8 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>4.1880000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.1883723718748857E-2</v>
       </c>
       <c r="H36">
         <v>7.009E-2</v>
@@ -2520,7 +2555,8 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>4.2930000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.2933461686715045E-2</v>
       </c>
       <c r="H37">
         <v>7.009E-2</v>
@@ -2573,7 +2609,8 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>4.0300000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0301243127519287E-2</v>
       </c>
       <c r="H38">
         <v>8.0310000000000006E-2</v>
@@ -2623,7 +2660,8 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>4.0300000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0301243127519287E-2</v>
       </c>
       <c r="H39">
         <v>8.0310000000000006E-2</v>
@@ -2673,7 +2711,8 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>4.0300000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0301243127519287E-2</v>
       </c>
       <c r="H40">
         <v>8.0310000000000006E-2</v>
@@ -2723,7 +2762,8 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>3.9640000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.96432101334558E-2</v>
       </c>
       <c r="H41">
         <v>8.0310000000000006E-2</v>
@@ -2773,7 +2813,8 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>4.0300000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0301243127519287E-2</v>
       </c>
       <c r="H42">
         <v>8.0310000000000006E-2</v>
@@ -2823,7 +2864,8 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>4.0300000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0301243127519287E-2</v>
       </c>
       <c r="H43">
         <v>8.0310000000000006E-2</v>
@@ -2870,7 +2912,8 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>6.6790000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.6788581756905829E-2</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2914,7 +2957,8 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>6.7000000000000004E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.70042644498164E-2</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2958,7 +3002,8 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>6.6900000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.689643556688199E-2</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3002,7 +3047,8 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>6.6589999999999996E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.6594741758983347E-2</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3046,7 +3092,8 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>6.7290000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.729078842023796E-2</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -3090,7 +3137,8 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>6.7290000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.729078842023796E-2</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3137,7 +3185,8 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>6.6909999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.6914895223459697E-2</v>
       </c>
       <c r="H50">
         <v>7.0819999999999994E-2</v>
@@ -3181,7 +3230,8 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>6.368E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.3684418366241821E-2</v>
       </c>
       <c r="H51">
         <v>7.0819999999999994E-2</v>
@@ -3225,7 +3275,8 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>6.1400000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.139843130263991E-2</v>
       </c>
       <c r="H52">
         <v>7.0819999999999994E-2</v>
@@ -3269,7 +3320,8 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>6.3990000000000005E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.3985578249851488E-2</v>
       </c>
       <c r="H53">
         <v>7.0819999999999994E-2</v>
@@ -3313,7 +3365,8 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>6.6909999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.6914895223459697E-2</v>
       </c>
       <c r="H54">
         <v>7.0819999999999994E-2</v>
@@ -3357,7 +3410,8 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>6.6909999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.6914895223459697E-2</v>
       </c>
       <c r="H55">
         <v>7.0819999999999994E-2</v>
@@ -3404,7 +3458,8 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>4.0210000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0208029573639913E-2</v>
       </c>
       <c r="H56">
         <v>5.5919999999999997E-2</v>
@@ -3448,7 +3503,8 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>4.0210000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0208029573639913E-2</v>
       </c>
       <c r="H57">
         <v>5.5919999999999997E-2</v>
@@ -3492,7 +3548,8 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>3.7429999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.7428808600407239E-2</v>
       </c>
       <c r="H58">
         <v>5.5919999999999997E-2</v>
@@ -3536,7 +3593,8 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>3.9269999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.9271023205603044E-2</v>
       </c>
       <c r="H59">
         <v>5.5919999999999997E-2</v>
@@ -3580,7 +3638,8 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>4.0210000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0208029573639913E-2</v>
       </c>
       <c r="H60">
         <v>5.5919999999999997E-2</v>
@@ -3624,7 +3683,8 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>4.0210000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0208029573639913E-2</v>
       </c>
       <c r="H61">
         <v>5.5919999999999997E-2</v>
@@ -3671,7 +3731,8 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3.2899999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.2901399261284166E-2</v>
       </c>
       <c r="H62">
         <v>8.9219999999999994E-2</v>
@@ -3715,7 +3776,8 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3.7339999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.7342660315298377E-2</v>
       </c>
       <c r="H63">
         <v>8.9219999999999994E-2</v>
@@ -3759,7 +3821,8 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>3.7339999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.7342660315298377E-2</v>
       </c>
       <c r="H64">
         <v>8.9219999999999994E-2</v>
@@ -3803,7 +3866,8 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>3.7339999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.7342660315298377E-2</v>
       </c>
       <c r="H65">
         <v>8.9219999999999994E-2</v>
@@ -3847,7 +3911,8 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>4.3770000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.3770939433461498E-2</v>
       </c>
       <c r="H66">
         <v>8.9219999999999994E-2</v>
@@ -3891,7 +3956,8 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>4.3770000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.3770939433461498E-2</v>
       </c>
       <c r="H67">
         <v>8.9219999999999994E-2</v>
@@ -3938,7 +4004,8 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>5.101E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.1013153327023726E-2</v>
       </c>
       <c r="H68">
         <v>7.0709999999999995E-2</v>
@@ -3982,7 +4049,8 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>5.101E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.1013409840885461E-2</v>
       </c>
       <c r="H69">
         <v>7.0709999999999995E-2</v>
@@ -4026,7 +4094,8 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>4.8520000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.8523694948409593E-2</v>
       </c>
       <c r="H70">
         <v>7.0709999999999995E-2</v>
@@ -4070,7 +4139,8 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>4.4330000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.8869545664503328E-2</v>
       </c>
       <c r="H71">
         <v>7.0709999999999995E-2</v>
@@ -4114,7 +4184,8 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>5.2060000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.2064134953653203E-2</v>
       </c>
       <c r="H72">
         <v>7.0709999999999995E-2</v>
@@ -4158,7 +4229,8 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>5.2060000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.2064134953653203E-2</v>
       </c>
       <c r="H73">
         <v>7.0709999999999995E-2</v>
@@ -4205,7 +4277,8 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>3.1550000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.1546114346633881E-2</v>
       </c>
       <c r="H74">
         <v>7.3260000000000006E-2</v>
@@ -4249,7 +4322,8 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>2.588E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.5877416847339997E-2</v>
       </c>
       <c r="H75">
         <v>7.3260000000000006E-2</v>
@@ -4293,7 +4367,8 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>2.462E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.4616698544228668E-2</v>
       </c>
       <c r="H76">
         <v>7.3260000000000006E-2</v>
@@ -4337,7 +4412,8 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>2.836E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.8360889402324421E-2</v>
       </c>
       <c r="H77">
         <v>7.3260000000000006E-2</v>
@@ -4381,7 +4457,8 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>3.2079999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.2079296924118698E-2</v>
       </c>
       <c r="H78">
         <v>7.3260000000000006E-2</v>
@@ -4425,7 +4502,8 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>3.1550000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.1546114346633881E-2</v>
       </c>
       <c r="H79">
         <v>7.3260000000000006E-2</v>
@@ -4472,7 +4550,8 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>4.4790000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.4792047183992677E-2</v>
       </c>
       <c r="H80">
         <v>8.158E-2</v>
@@ -4516,7 +4595,8 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>4.4790000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.4792047183992677E-2</v>
       </c>
       <c r="H81">
         <v>8.158E-2</v>
@@ -4560,7 +4640,8 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>4.4790000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.4792047183992677E-2</v>
       </c>
       <c r="H82">
         <v>8.158E-2</v>
@@ -4604,7 +4685,8 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>4.002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0018243441259482E-2</v>
       </c>
       <c r="H83">
         <v>8.158E-2</v>
@@ -4648,7 +4730,8 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>4.7539999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.7535571475466491E-2</v>
       </c>
       <c r="H84">
         <v>8.158E-2</v>
@@ -4692,7 +4775,8 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>4.7730000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.7726412776841858E-2</v>
       </c>
       <c r="H85">
         <v>8.158E-2</v>
@@ -4739,7 +4823,8 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>2.9850000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9846608977427212E-2</v>
       </c>
       <c r="H86">
         <v>6.386E-2</v>
@@ -4783,7 +4868,8 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>3.6499999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.649551597207891E-2</v>
       </c>
       <c r="H87">
         <v>6.386E-2</v>
@@ -4827,7 +4913,8 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>3.3579999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.3575386700693446E-2</v>
       </c>
       <c r="H88">
         <v>6.386E-2</v>
@@ -4871,7 +4958,8 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>3.6499999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.649551597207891E-2</v>
       </c>
       <c r="H89">
         <v>6.386E-2</v>
@@ -4915,7 +5003,8 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>3.6499999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.649551597207891E-2</v>
       </c>
       <c r="H90">
         <v>6.386E-2</v>
@@ -4959,7 +5048,8 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>3.6499999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.649551597207891E-2</v>
       </c>
       <c r="H91">
         <v>6.386E-2</v>
@@ -5006,7 +5096,8 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>3.8469999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.8471315252826981E-2</v>
       </c>
       <c r="H92">
         <v>6.9400000000000003E-2</v>
@@ -5050,7 +5141,8 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>4.2320000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.2325244588244396E-2</v>
       </c>
       <c r="H93">
         <v>6.9400000000000003E-2</v>
@@ -5094,7 +5186,8 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>4.129E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.1287581119692773E-2</v>
       </c>
       <c r="H94">
         <v>6.9400000000000003E-2</v>
@@ -5138,7 +5231,8 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>3.4619999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.4621665290160974E-2</v>
       </c>
       <c r="H95">
         <v>6.9400000000000003E-2</v>
@@ -5182,7 +5276,8 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>3.8469999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.8471315252826981E-2</v>
       </c>
       <c r="H96">
         <v>6.9400000000000003E-2</v>
@@ -5226,7 +5321,8 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>3.8469999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.8471315252826981E-2</v>
       </c>
       <c r="H97">
         <v>6.9400000000000003E-2</v>
@@ -5273,7 +5369,8 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>3.5589999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.5594251104164101E-2</v>
       </c>
       <c r="H98">
         <v>7.3080000000000006E-2</v>
@@ -5317,7 +5414,8 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>3.8370000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.836581686341918E-2</v>
       </c>
       <c r="H99">
         <v>7.3080000000000006E-2</v>
@@ -5361,7 +5459,8 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>3.6979999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.6982028121252168E-2</v>
       </c>
       <c r="H100">
         <v>7.3080000000000006E-2</v>
@@ -5405,7 +5504,8 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>3.8370000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.836581686341918E-2</v>
       </c>
       <c r="H101">
         <v>7.3080000000000006E-2</v>
@@ -5449,7 +5549,8 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>3.8370000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.836581686341918E-2</v>
       </c>
       <c r="H102">
         <v>7.3080000000000006E-2</v>
@@ -5493,7 +5594,8 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>4.0460000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.0459367211144251E-2</v>
       </c>
       <c r="H103">
         <v>7.3080000000000006E-2</v>
@@ -5540,7 +5642,8 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>4.3450000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.3447791946132797E-2</v>
       </c>
       <c r="H104">
         <v>7.5880000000000003E-2</v>
@@ -5584,7 +5687,8 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>4.7390000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.7387795439897532E-2</v>
       </c>
       <c r="H105">
         <v>7.5880000000000003E-2</v>
@@ -5628,7 +5732,8 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>4.6850000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.684813751364901E-2</v>
       </c>
       <c r="H106">
         <v>7.5880000000000003E-2</v>
@@ -5672,7 +5777,8 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>4.6929999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.693108817721426E-2</v>
       </c>
       <c r="H107">
         <v>7.5880000000000003E-2</v>
@@ -5716,7 +5822,8 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>4.7390000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.7387795439897532E-2</v>
       </c>
       <c r="H108">
         <v>7.5880000000000003E-2</v>
@@ -5760,7 +5867,8 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>4.7640000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.7637758055635193E-2</v>
       </c>
       <c r="H109">
         <v>7.5880000000000003E-2</v>
@@ -5807,7 +5915,8 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>6.3759999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.3761163268788501E-2</v>
       </c>
       <c r="H110">
         <v>6.6280000000000006E-2</v>
@@ -5851,7 +5960,8 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>6.4799999999999996E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.4797413174050883E-2</v>
       </c>
       <c r="H111">
         <v>6.6280000000000006E-2</v>
@@ -5895,7 +6005,8 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>6.3759999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.3761163268788501E-2</v>
       </c>
       <c r="H112">
         <v>6.6280000000000006E-2</v>
@@ -5939,7 +6050,8 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>6.1240000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.1243388384370184E-2</v>
       </c>
       <c r="H113">
         <v>6.6280000000000006E-2</v>
@@ -5983,7 +6095,8 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>6.5129999999999993E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.5132717952442673E-2</v>
       </c>
       <c r="H114">
         <v>6.6280000000000006E-2</v>
@@ -6027,7 +6140,8 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>6.7559999999999995E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>6.7558723844642773E-2</v>
       </c>
       <c r="H115">
         <v>6.6280000000000006E-2</v>
@@ -6074,7 +6188,8 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>4.58E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.5797875685951027E-2</v>
       </c>
       <c r="H116">
         <v>7.1650000000000005E-2</v>
@@ -6118,7 +6233,8 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>4.58E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.5797875685951027E-2</v>
       </c>
       <c r="H117">
         <v>7.1650000000000005E-2</v>
@@ -6162,7 +6278,8 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>4.58E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.5797875685951027E-2</v>
       </c>
       <c r="H118">
         <v>7.1650000000000005E-2</v>
@@ -6206,7 +6323,8 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>4.6350000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.6353116033894012E-2</v>
       </c>
       <c r="H119">
         <v>7.1650000000000005E-2</v>
@@ -6250,7 +6368,8 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>4.6949999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.6954899774528262E-2</v>
       </c>
       <c r="H120">
         <v>7.1650000000000005E-2</v>
@@ -6294,7 +6413,8 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>4.6949999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.6954899774528262E-2</v>
       </c>
       <c r="H121">
         <v>7.1650000000000005E-2</v>
